--- a/simulation_data/iterative_algorithm/i_error_level_4_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_4_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.29706751252179</v>
+        <v>89.46261181893833</v>
       </c>
       <c r="D2" t="n">
-        <v>4.579763813994731</v>
+        <v>5.227915254245494</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.03089545734615</v>
+        <v>88.49422369555582</v>
       </c>
       <c r="D3" t="n">
-        <v>5.430820908710036</v>
+        <v>5.091996209847051</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.32383768000777</v>
+        <v>87.77241424542693</v>
       </c>
       <c r="D4" t="n">
-        <v>5.229599060842252</v>
+        <v>5.028187078382619</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.29157162503617</v>
+        <v>87.30335036509562</v>
       </c>
       <c r="D5" t="n">
-        <v>5.544586141320889</v>
+        <v>5.371349926453565</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.81268570925751</v>
+        <v>86.80718384345168</v>
       </c>
       <c r="D6" t="n">
-        <v>5.623984607327552</v>
+        <v>5.203052671650416</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.64572136642904</v>
+        <v>84.92846547167636</v>
       </c>
       <c r="D7" t="n">
-        <v>5.28724005683921</v>
+        <v>4.507301354563467</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.08959402010429</v>
+        <v>84.93653671162396</v>
       </c>
       <c r="D8" t="n">
-        <v>5.798239776113943</v>
+        <v>4.960530663444471</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.27395979334898</v>
+        <v>82.57452625809265</v>
       </c>
       <c r="D9" t="n">
-        <v>4.852038170729649</v>
+        <v>5.445547766263083</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.50032122968632</v>
+        <v>82.06901164745803</v>
       </c>
       <c r="D10" t="n">
-        <v>6.161662670337442</v>
+        <v>5.282709922604258</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.03644511010398</v>
+        <v>80.91787618494705</v>
       </c>
       <c r="D11" t="n">
-        <v>5.343317171757831</v>
+        <v>4.99680012786008</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.99751207749145</v>
+        <v>80.21755013438606</v>
       </c>
       <c r="D12" t="n">
-        <v>5.729052512015435</v>
+        <v>4.482852137916538</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.3330381815763</v>
+        <v>79.17264103360903</v>
       </c>
       <c r="D13" t="n">
-        <v>4.944411949059965</v>
+        <v>4.509416688046586</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.65228083870393</v>
+        <v>77.16104031929306</v>
       </c>
       <c r="D14" t="n">
-        <v>5.289572646146316</v>
+        <v>5.202973626007085</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.64107655682622</v>
+        <v>77.16209495855452</v>
       </c>
       <c r="D15" t="n">
-        <v>5.355745315442599</v>
+        <v>4.830739106837854</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.43960464666567</v>
+        <v>75.74347108104797</v>
       </c>
       <c r="D16" t="n">
-        <v>5.277447004494242</v>
+        <v>5.112264033974793</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.03491063449916</v>
+        <v>74.75297520500389</v>
       </c>
       <c r="D17" t="n">
-        <v>4.982960485120214</v>
+        <v>5.213925606769465</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.461165492235</v>
+        <v>73.04652576824385</v>
       </c>
       <c r="D18" t="n">
-        <v>4.961291687042841</v>
+        <v>4.79939321416555</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.87695562919632</v>
+        <v>72.45522210349316</v>
       </c>
       <c r="D19" t="n">
-        <v>5.229940550884232</v>
+        <v>4.898017343522126</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.36568027167036</v>
+        <v>72.20612077087598</v>
       </c>
       <c r="D20" t="n">
-        <v>4.880910797006128</v>
+        <v>5.356330849637631</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.06852580630137</v>
+        <v>70.59879712174346</v>
       </c>
       <c r="D21" t="n">
-        <v>4.894264272512228</v>
+        <v>4.950204682360508</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.81965514489681</v>
+        <v>69.91389492927421</v>
       </c>
       <c r="D22" t="n">
-        <v>4.902642616612091</v>
+        <v>4.937123218953928</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.73973632469274</v>
+        <v>69.0076299092554</v>
       </c>
       <c r="D23" t="n">
-        <v>4.977694444785046</v>
+        <v>5.131515900489283</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.44920033695522</v>
+        <v>67.56597788873506</v>
       </c>
       <c r="D24" t="n">
-        <v>5.544335962679132</v>
+        <v>4.775199065906357</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.47376262142849</v>
+        <v>67.66302091456464</v>
       </c>
       <c r="D25" t="n">
-        <v>5.291237095602941</v>
+        <v>5.467881290926259</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.03727078104788</v>
+        <v>65.74807435412323</v>
       </c>
       <c r="D26" t="n">
-        <v>5.442610325165763</v>
+        <v>5.336283343892593</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.88860310710133</v>
+        <v>64.46175401471235</v>
       </c>
       <c r="D27" t="n">
-        <v>5.706317464688696</v>
+        <v>4.906785091921892</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.99605402195727</v>
+        <v>64.47328158260913</v>
       </c>
       <c r="D28" t="n">
-        <v>5.232358857113111</v>
+        <v>5.178348458708227</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.04333745305666</v>
+        <v>62.84132698640028</v>
       </c>
       <c r="D29" t="n">
-        <v>5.151556730841236</v>
+        <v>4.826065457429873</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.47180990435341</v>
+        <v>62.70263559973118</v>
       </c>
       <c r="D30" t="n">
-        <v>4.476348999050821</v>
+        <v>4.799582359038816</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.39595586151636</v>
+        <v>61.94689502947703</v>
       </c>
       <c r="D31" t="n">
-        <v>5.252547855262266</v>
+        <v>4.948340642171686</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.62797829163452</v>
+        <v>59.71197185123867</v>
       </c>
       <c r="D32" t="n">
-        <v>5.723182745062497</v>
+        <v>4.867299009508476</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.92064124463116</v>
+        <v>58.89366388614724</v>
       </c>
       <c r="D33" t="n">
-        <v>4.550561418758156</v>
+        <v>5.368865888020501</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.16785324143152</v>
+        <v>57.75138161826492</v>
       </c>
       <c r="D34" t="n">
-        <v>5.248047726827926</v>
+        <v>5.302289682480571</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.28675571040826</v>
+        <v>56.46550173031849</v>
       </c>
       <c r="D35" t="n">
-        <v>5.336234569750038</v>
+        <v>4.91524718458304</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.44408509795905</v>
+        <v>55.76983528715543</v>
       </c>
       <c r="D36" t="n">
-        <v>5.179076043553623</v>
+        <v>5.146106673936078</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.66986742085815</v>
+        <v>54.4534963121455</v>
       </c>
       <c r="D37" t="n">
-        <v>5.618540600339869</v>
+        <v>5.21942562267015</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.17510560560805</v>
+        <v>53.76072049274349</v>
       </c>
       <c r="D38" t="n">
-        <v>5.129358556555582</v>
+        <v>5.336689587380281</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.76675788843767</v>
+        <v>52.41322836154094</v>
       </c>
       <c r="D39" t="n">
-        <v>5.806336831906736</v>
+        <v>5.100032687741155</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.32410465098155</v>
+        <v>52.44931445412953</v>
       </c>
       <c r="D40" t="n">
-        <v>5.08308007350064</v>
+        <v>5.322353780870076</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.92368764973772</v>
+        <v>51.1875507307253</v>
       </c>
       <c r="D41" t="n">
-        <v>5.565309860490317</v>
+        <v>4.975589758289278</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.81172497431642</v>
+        <v>49.82272757333651</v>
       </c>
       <c r="D42" t="n">
-        <v>5.0135158219105</v>
+        <v>4.975099419129637</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.34617559986957</v>
+        <v>48.9986041955892</v>
       </c>
       <c r="D43" t="n">
-        <v>5.336182986684303</v>
+        <v>4.983737834845306</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.9800533221264</v>
+        <v>48.56242422129208</v>
       </c>
       <c r="D44" t="n">
-        <v>5.308060265151867</v>
+        <v>4.926725046112847</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.44292754279783</v>
+        <v>47.16720956171288</v>
       </c>
       <c r="D45" t="n">
-        <v>5.35109732289501</v>
+        <v>4.717421719659625</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.83365134217574</v>
+        <v>45.2234723831908</v>
       </c>
       <c r="D46" t="n">
-        <v>5.146075564167894</v>
+        <v>4.960571868160399</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.71224531056708</v>
+        <v>44.07223423516471</v>
       </c>
       <c r="D47" t="n">
-        <v>5.738349079789591</v>
+        <v>4.956946838491183</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.68734475107115</v>
+        <v>44.29496018602334</v>
       </c>
       <c r="D48" t="n">
-        <v>5.46010074643995</v>
+        <v>5.319785263856383</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.32700318634159</v>
+        <v>43.09061938315344</v>
       </c>
       <c r="D49" t="n">
-        <v>5.293975357842723</v>
+        <v>4.733718577067518</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.60495120929779</v>
+        <v>41.47093372534181</v>
       </c>
       <c r="D50" t="n">
-        <v>4.83506645531545</v>
+        <v>5.272132413954774</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.81583440315834</v>
+        <v>40.28755868222149</v>
       </c>
       <c r="D51" t="n">
-        <v>5.547975941773238</v>
+        <v>5.474887348577586</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.86652239977492</v>
+        <v>39.88979923152015</v>
       </c>
       <c r="D52" t="n">
-        <v>5.049585284578506</v>
+        <v>5.396373293741752</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.27187837955977</v>
+        <v>39.37585571424668</v>
       </c>
       <c r="D53" t="n">
-        <v>5.120636721886556</v>
+        <v>4.826409536626</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.2967374694551</v>
+        <v>39.02687184938856</v>
       </c>
       <c r="D54" t="n">
-        <v>4.397848291866393</v>
+        <v>5.478765715946111</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.5985295020653</v>
+        <v>37.38163666785717</v>
       </c>
       <c r="D55" t="n">
-        <v>5.293438867914126</v>
+        <v>4.668716767233474</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.89628532243894</v>
+        <v>35.88366257449916</v>
       </c>
       <c r="D56" t="n">
-        <v>5.553676898624033</v>
+        <v>5.570438765093371</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.92750373718614</v>
+        <v>35.22349195730584</v>
       </c>
       <c r="D57" t="n">
-        <v>5.081660820487644</v>
+        <v>4.935475686755197</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.98106469644636</v>
+        <v>34.08034466660546</v>
       </c>
       <c r="D58" t="n">
-        <v>5.236715349288495</v>
+        <v>4.674414434034685</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.73495411331233</v>
+        <v>33.10267292492112</v>
       </c>
       <c r="D59" t="n">
-        <v>5.331763510854455</v>
+        <v>5.292075750169619</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.30117968458727</v>
+        <v>32.01643013549046</v>
       </c>
       <c r="D60" t="n">
-        <v>4.924127037862646</v>
+        <v>5.25308734991451</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.73219010276796</v>
+        <v>30.82004715847251</v>
       </c>
       <c r="D61" t="n">
-        <v>4.887435238689533</v>
+        <v>5.206794802569751</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.51231263511569</v>
+        <v>31.354939164778</v>
       </c>
       <c r="D62" t="n">
-        <v>5.118087961424191</v>
+        <v>4.909485541554663</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.30451916333261</v>
+        <v>28.19543607305274</v>
       </c>
       <c r="D63" t="n">
-        <v>5.746728985881616</v>
+        <v>5.129607855724077</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.10480652905452</v>
+        <v>29.34261884521774</v>
       </c>
       <c r="D64" t="n">
-        <v>5.57327034434448</v>
+        <v>5.447873284338383</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.82993954409061</v>
+        <v>26.66370058705602</v>
       </c>
       <c r="D65" t="n">
-        <v>4.535546292592495</v>
+        <v>6.64279400707121</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.5926400416392</v>
+        <v>25.39644062779459</v>
       </c>
       <c r="D66" t="n">
-        <v>4.764522389880252</v>
+        <v>5.357305825610295</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.66314016924588</v>
+        <v>25.55512660031152</v>
       </c>
       <c r="D67" t="n">
-        <v>5.638168339279589</v>
+        <v>5.412372504861127</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.02405087410525</v>
+        <v>24.81916147511172</v>
       </c>
       <c r="D68" t="n">
-        <v>4.876943400854632</v>
+        <v>5.577098971932066</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.91363299027018</v>
+        <v>23.20715570844039</v>
       </c>
       <c r="D69" t="n">
-        <v>4.948331591001691</v>
+        <v>5.503680582667807</v>
       </c>
     </row>
   </sheetData>
